--- a/m/仓位管理程序/zn.xlsx
+++ b/m/仓位管理程序/zn.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apple\Desktop\交易记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\xyz\future\m\仓位管理程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13032"/>
   </bookViews>
   <sheets>
     <sheet name="zn" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -63,16 +63,16 @@
     <t>累计收益率</t>
   </si>
   <si>
-    <t>AANperiodBreak5</t>
-  </si>
-  <si>
     <t>空头</t>
   </si>
   <si>
-    <t>zn1412</t>
+    <t>多头</t>
   </si>
   <si>
-    <t>多头</t>
+    <t>AABreak_20180809</t>
+  </si>
+  <si>
+    <t>zn1810</t>
   </si>
 </sst>
 </file>
@@ -996,13 +996,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,1984 +1048,3172 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
-        <v>39836</v>
+        <v>39861</v>
       </c>
       <c r="F2">
-        <v>15360</v>
+        <v>12715</v>
       </c>
       <c r="G2" s="1">
-        <v>39895</v>
+        <v>39926</v>
       </c>
       <c r="H2">
-        <v>16375</v>
+        <v>14840</v>
       </c>
       <c r="I2">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>18600</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>-490575</v>
+        <v>10615</v>
       </c>
       <c r="L2">
-        <v>-490575</v>
+        <v>10615</v>
       </c>
       <c r="M2" s="2">
-        <v>-63.877000000000002</v>
+        <v>1.6697</v>
       </c>
       <c r="N2" s="2">
-        <v>-63.877000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1.6697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
-        <v>39895</v>
+        <v>39930</v>
       </c>
       <c r="F3">
-        <v>16375</v>
+        <v>14655</v>
       </c>
       <c r="G3" s="1">
-        <v>39926</v>
+        <v>40008</v>
       </c>
       <c r="H3">
-        <v>17555</v>
+        <v>15145</v>
       </c>
       <c r="I3">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>35000</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>997500</v>
+        <v>2440</v>
       </c>
       <c r="L3">
-        <v>506925</v>
+        <v>13055</v>
       </c>
       <c r="M3" s="2">
-        <v>121.8321</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="N3" s="2">
-        <v>57.955100000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>2.0026999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
-        <v>39930</v>
+        <v>40008</v>
       </c>
       <c r="F4">
-        <v>17370</v>
+        <v>15145</v>
       </c>
       <c r="G4" s="1">
-        <v>39938</v>
+        <v>40147</v>
       </c>
       <c r="H4">
-        <v>18475</v>
+        <v>20035</v>
       </c>
       <c r="I4">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>16800</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-480900</v>
+        <v>24440</v>
       </c>
       <c r="L4">
-        <v>26025</v>
+        <v>37495</v>
       </c>
       <c r="M4" s="2">
-        <v>-55.371299999999998</v>
+        <v>3.2275</v>
       </c>
       <c r="N4" s="2">
-        <v>2.5838000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>5.2301000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
-        <v>39941</v>
+        <v>40151</v>
       </c>
       <c r="F5">
-        <v>18420</v>
+        <v>20375</v>
       </c>
       <c r="G5" s="1">
-        <v>40008</v>
+        <v>40169</v>
       </c>
       <c r="H5">
-        <v>17860</v>
+        <v>20855</v>
       </c>
       <c r="I5">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>16800</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>-252000</v>
+        <v>-2410</v>
       </c>
       <c r="L5">
-        <v>-225975</v>
+        <v>35085</v>
       </c>
       <c r="M5" s="2">
-        <v>-27.361599999999999</v>
+        <v>-0.2366</v>
       </c>
       <c r="N5" s="2">
-        <v>-24.777799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>4.9935999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
-        <v>40008</v>
+        <v>40169</v>
       </c>
       <c r="F6">
-        <v>17860</v>
+        <v>20855</v>
       </c>
       <c r="G6" s="1">
-        <v>40014</v>
+        <v>40192</v>
       </c>
       <c r="H6">
-        <v>18690</v>
+        <v>22350</v>
       </c>
       <c r="I6">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>36000</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>-783000</v>
+        <v>7465</v>
       </c>
       <c r="L6">
-        <v>-1008975</v>
+        <v>42550</v>
       </c>
       <c r="M6" s="2">
-        <v>-87.682000000000002</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="N6" s="2">
-        <v>-112.4598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>5.7095000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
-        <v>40014</v>
+        <v>40192</v>
       </c>
       <c r="F7">
-        <v>18690</v>
+        <v>22350</v>
       </c>
       <c r="G7" s="1">
-        <v>40147</v>
+        <v>40246</v>
       </c>
       <c r="H7">
-        <v>22750</v>
+        <v>20310</v>
       </c>
       <c r="I7">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>33400</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>3356700</v>
+        <v>10190</v>
       </c>
       <c r="L7">
-        <v>2347725</v>
+        <v>52740</v>
       </c>
       <c r="M7" s="2">
-        <v>359.19740000000002</v>
+        <v>0.91190000000000004</v>
       </c>
       <c r="N7" s="2">
-        <v>246.73769999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>6.6212999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
-        <v>40151</v>
+        <v>40246</v>
       </c>
       <c r="F8">
-        <v>23090</v>
+        <v>20310</v>
       </c>
       <c r="G8" s="1">
-        <v>40192</v>
+        <v>40288</v>
       </c>
       <c r="H8">
-        <v>25065</v>
+        <v>19955</v>
       </c>
       <c r="I8">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>19000</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>919125</v>
+        <v>-1785</v>
       </c>
       <c r="L8">
-        <v>3266850</v>
+        <v>50955</v>
       </c>
       <c r="M8" s="2">
-        <v>79.612399999999994</v>
+        <v>-0.17580000000000001</v>
       </c>
       <c r="N8" s="2">
-        <v>326.3501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>6.4455999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
-        <v>40192</v>
+        <v>40288</v>
       </c>
       <c r="F9">
-        <v>25065</v>
+        <v>19955</v>
       </c>
       <c r="G9" s="1">
-        <v>40246</v>
+        <v>40297</v>
       </c>
       <c r="H9">
-        <v>23025</v>
+        <v>19490</v>
       </c>
       <c r="I9">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>13200</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>660000</v>
+        <v>-2335</v>
       </c>
       <c r="L9">
-        <v>3926850</v>
+        <v>48620</v>
       </c>
       <c r="M9" s="2">
-        <v>52.6631</v>
+        <v>-0.23400000000000001</v>
       </c>
       <c r="N9" s="2">
-        <v>379.01310000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>6.2115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
-        <v>40246</v>
+        <v>40297</v>
       </c>
       <c r="F10">
-        <v>23025</v>
+        <v>19490</v>
       </c>
       <c r="G10" s="1">
-        <v>40288</v>
+        <v>40354</v>
       </c>
       <c r="H10">
-        <v>22670</v>
+        <v>16090</v>
       </c>
       <c r="I10">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>15400</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-152075</v>
+        <v>16990</v>
       </c>
       <c r="L10">
-        <v>3774775</v>
+        <v>65610</v>
       </c>
       <c r="M10" s="2">
-        <v>-13.2096</v>
+        <v>1.7435</v>
       </c>
       <c r="N10" s="2">
-        <v>365.80360000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>7.9550000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
-        <v>40288</v>
+        <v>40354</v>
       </c>
       <c r="F11">
-        <v>22670</v>
+        <v>16090</v>
       </c>
       <c r="G11" s="1">
-        <v>40354</v>
+        <v>40403</v>
       </c>
       <c r="H11">
-        <v>18805</v>
+        <v>17300</v>
       </c>
       <c r="I11">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>21200</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>2027250</v>
+        <v>6040</v>
       </c>
       <c r="L11">
-        <v>5802025</v>
+        <v>71650</v>
       </c>
       <c r="M11" s="2">
-        <v>178.84870000000001</v>
+        <v>0.75080000000000002</v>
       </c>
       <c r="N11" s="2">
-        <v>544.65229999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+        <v>8.7058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
-        <v>40354</v>
+        <v>40415</v>
       </c>
       <c r="F12">
-        <v>18805</v>
+        <v>16940</v>
       </c>
       <c r="G12" s="1">
-        <v>40403</v>
+        <v>40424</v>
       </c>
       <c r="H12">
-        <v>20015</v>
+        <v>18240</v>
       </c>
       <c r="I12">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>15600</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>456300</v>
+        <v>-6510</v>
       </c>
       <c r="L12">
-        <v>6258325</v>
+        <v>65140</v>
       </c>
       <c r="M12" s="2">
-        <v>48.529600000000002</v>
+        <v>-0.76859999999999995</v>
       </c>
       <c r="N12" s="2">
-        <v>593.18190000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>7.9371999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>40415</v>
+        <v>40424</v>
       </c>
       <c r="F13">
-        <v>19655</v>
+        <v>18240</v>
       </c>
       <c r="G13" s="1">
-        <v>40424</v>
+        <v>40463</v>
       </c>
       <c r="H13">
-        <v>20955</v>
+        <v>19120</v>
       </c>
       <c r="I13">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>18200</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>-609700</v>
+        <v>-4410</v>
       </c>
       <c r="L13">
-        <v>5648625</v>
+        <v>60730</v>
       </c>
       <c r="M13" s="2">
-        <v>-62.040199999999999</v>
+        <v>-0.48359999999999997</v>
       </c>
       <c r="N13" s="2">
-        <v>531.14170000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>7.4535999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>40424</v>
+        <v>40463</v>
       </c>
       <c r="F14">
-        <v>20955</v>
+        <v>19120</v>
       </c>
       <c r="G14" s="1">
         <v>40483</v>
       </c>
       <c r="H14">
-        <v>22475</v>
+        <v>19760</v>
       </c>
       <c r="I14">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>18000</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>666000</v>
+        <v>3190</v>
       </c>
       <c r="L14">
-        <v>6314625</v>
+        <v>63920</v>
       </c>
       <c r="M14" s="2">
-        <v>63.564799999999998</v>
+        <v>0.3337</v>
       </c>
       <c r="N14" s="2">
-        <v>594.70650000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+        <v>7.7873000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
         <v>40498</v>
       </c>
       <c r="F15">
-        <v>21660</v>
+        <v>18945</v>
       </c>
       <c r="G15" s="1">
         <v>40542</v>
       </c>
       <c r="H15">
-        <v>21925</v>
+        <v>19210</v>
       </c>
       <c r="I15">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>9200</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>-70150</v>
+        <v>-1335</v>
       </c>
       <c r="L15">
-        <v>6244475</v>
+        <v>62585</v>
       </c>
       <c r="M15" s="2">
-        <v>-6.4774000000000003</v>
+        <v>-0.1409</v>
       </c>
       <c r="N15" s="2">
-        <v>588.22910000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>7.6463999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>40542</v>
       </c>
       <c r="F16">
-        <v>21925</v>
+        <v>19210</v>
       </c>
       <c r="G16" s="1">
-        <v>40567</v>
+        <v>40583</v>
       </c>
       <c r="H16">
-        <v>21250</v>
+        <v>19300</v>
       </c>
       <c r="I16">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>17400</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>-311025</v>
+        <v>-460</v>
       </c>
       <c r="L16">
-        <v>5933450</v>
+        <v>62125</v>
       </c>
       <c r="M16" s="2">
-        <v>-28.371700000000001</v>
+        <v>-4.7899999999999998E-2</v>
       </c>
       <c r="N16" s="2">
-        <v>559.85739999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+        <v>7.5984999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1">
-        <v>40567</v>
+        <v>40589</v>
       </c>
       <c r="F17">
-        <v>21250</v>
+        <v>19250</v>
       </c>
       <c r="G17" s="1">
-        <v>40583</v>
+        <v>40693</v>
       </c>
       <c r="H17">
-        <v>22015</v>
+        <v>16500</v>
       </c>
       <c r="I17">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>19800</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-398475</v>
+        <v>13740</v>
       </c>
       <c r="L17">
-        <v>5534975</v>
+        <v>75865</v>
       </c>
       <c r="M17" s="2">
-        <v>-37.503500000000003</v>
+        <v>1.4275</v>
       </c>
       <c r="N17" s="2">
-        <v>522.35389999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
-        <v>40589</v>
+        <v>40693</v>
       </c>
       <c r="F18">
-        <v>21965</v>
+        <v>16500</v>
       </c>
       <c r="G18" s="1">
-        <v>40599</v>
+        <v>40725</v>
       </c>
       <c r="H18">
-        <v>21485</v>
+        <v>16830</v>
       </c>
       <c r="I18">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>18200</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>-236600</v>
+        <v>-1660</v>
       </c>
       <c r="L18">
-        <v>5298375</v>
+        <v>74205</v>
       </c>
       <c r="M18" s="2">
-        <v>-21.543399999999998</v>
+        <v>-0.20119999999999999</v>
       </c>
       <c r="N18" s="2">
-        <v>500.81049999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>8.8247999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
-        <v>40599</v>
+        <v>40725</v>
       </c>
       <c r="F19">
-        <v>21485</v>
+        <v>16830</v>
       </c>
       <c r="G19" s="1">
-        <v>40693</v>
+        <v>40759</v>
       </c>
       <c r="H19">
-        <v>19215</v>
+        <v>17225</v>
       </c>
       <c r="I19">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>780500</v>
+        <v>1965</v>
       </c>
       <c r="L19">
-        <v>6078875</v>
+        <v>76170</v>
       </c>
       <c r="M19" s="2">
-        <v>72.655299999999997</v>
+        <v>0.23350000000000001</v>
       </c>
       <c r="N19" s="2">
-        <v>573.46590000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>9.0582999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
-        <v>40693</v>
+        <v>40759</v>
       </c>
       <c r="F20">
-        <v>19215</v>
+        <v>17225</v>
       </c>
       <c r="G20" s="1">
-        <v>40759</v>
+        <v>40847</v>
       </c>
       <c r="H20">
-        <v>19940</v>
+        <v>14245</v>
       </c>
       <c r="I20">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>24000</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>411000</v>
+        <v>14890</v>
       </c>
       <c r="L20">
-        <v>6489875</v>
+        <v>91060</v>
       </c>
       <c r="M20" s="2">
-        <v>42.7791</v>
+        <v>1.7289000000000001</v>
       </c>
       <c r="N20" s="2">
-        <v>616.24490000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.7872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1">
-        <v>40759</v>
+        <v>40847</v>
       </c>
       <c r="F21">
-        <v>19940</v>
+        <v>14245</v>
       </c>
       <c r="G21" s="1">
-        <v>40847</v>
+        <v>40893</v>
       </c>
       <c r="H21">
-        <v>16960</v>
+        <v>13555</v>
       </c>
       <c r="I21">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>25800</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>1896300</v>
+        <v>-3460</v>
       </c>
       <c r="L21">
-        <v>8386175</v>
+        <v>87600</v>
       </c>
       <c r="M21" s="2">
-        <v>190.20060000000001</v>
+        <v>-0.48580000000000001</v>
       </c>
       <c r="N21" s="2">
-        <v>806.44550000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.301399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
-        <v>40847</v>
+        <v>40893</v>
       </c>
       <c r="F22">
-        <v>16960</v>
+        <v>13555</v>
       </c>
       <c r="G22" s="1">
-        <v>40893</v>
+        <v>40956</v>
       </c>
       <c r="H22">
-        <v>16270</v>
+        <v>14310</v>
       </c>
       <c r="I22">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>16400</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>-299300</v>
+        <v>3765</v>
       </c>
       <c r="L22">
-        <v>8086875</v>
+        <v>91365</v>
       </c>
       <c r="M22" s="2">
-        <v>-35.294800000000002</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="N22" s="2">
-        <v>771.15070000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.8569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1">
-        <v>40893</v>
+        <v>40956</v>
       </c>
       <c r="F23">
-        <v>16270</v>
+        <v>14310</v>
       </c>
       <c r="G23" s="1">
-        <v>40924</v>
+        <v>40976</v>
       </c>
       <c r="H23">
-        <v>16655</v>
+        <v>14095</v>
       </c>
       <c r="I23">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>24400</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>-259250</v>
+        <v>-1085</v>
       </c>
       <c r="L23">
-        <v>7827625</v>
+        <v>90280</v>
       </c>
       <c r="M23" s="2">
-        <v>-31.868500000000001</v>
+        <v>-0.15160000000000001</v>
       </c>
       <c r="N23" s="2">
-        <v>739.28229999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.705299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
-        <v>40924</v>
+        <v>40976</v>
       </c>
       <c r="F24">
-        <v>16655</v>
+        <v>14095</v>
       </c>
       <c r="G24" s="1">
-        <v>40956</v>
+        <v>41094</v>
       </c>
       <c r="H24">
-        <v>17025</v>
+        <v>13140</v>
       </c>
       <c r="I24">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>34000</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>280500</v>
+        <v>4765</v>
       </c>
       <c r="L24">
-        <v>8108125</v>
+        <v>95045</v>
       </c>
       <c r="M24" s="2">
-        <v>33.683599999999998</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="N24" s="2">
-        <v>772.96579999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+        <v>11.381399999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1">
-        <v>40956</v>
+        <v>41096</v>
       </c>
       <c r="F25">
-        <v>17025</v>
+        <v>13040</v>
       </c>
       <c r="G25" s="1">
-        <v>41094</v>
+        <v>41116</v>
       </c>
       <c r="H25">
-        <v>15855</v>
+        <v>12700</v>
       </c>
       <c r="I25">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>28400</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>802300</v>
+        <v>-1710</v>
       </c>
       <c r="L25">
-        <v>8910425</v>
+        <v>93335</v>
       </c>
       <c r="M25" s="2">
-        <v>94.249600000000001</v>
+        <v>-0.26229999999999998</v>
       </c>
       <c r="N25" s="2">
-        <v>867.21550000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+        <v>11.1191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1">
-        <v>41096</v>
+        <v>41116</v>
       </c>
       <c r="F26">
-        <v>15755</v>
+        <v>12700</v>
       </c>
       <c r="G26" s="1">
-        <v>41116</v>
+        <v>41138</v>
       </c>
       <c r="H26">
-        <v>15415</v>
+        <v>12705</v>
       </c>
       <c r="I26">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>38000</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-361000</v>
+        <v>15</v>
       </c>
       <c r="L26">
-        <v>8549425</v>
+        <v>93350</v>
       </c>
       <c r="M26" s="2">
-        <v>-45.826700000000002</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="N26" s="2">
-        <v>821.38879999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+        <v>11.121499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1">
-        <v>41116</v>
+        <v>41138</v>
       </c>
       <c r="F27">
-        <v>15415</v>
+        <v>12705</v>
       </c>
       <c r="G27" s="1">
-        <v>41149</v>
+        <v>41197</v>
       </c>
       <c r="H27">
-        <v>15710</v>
+        <v>13360</v>
       </c>
       <c r="I27">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>46600</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>-390275</v>
+        <v>3265</v>
       </c>
       <c r="L27">
-        <v>8159150</v>
+        <v>96615</v>
       </c>
       <c r="M27" s="2">
-        <v>-50.6357</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="N27" s="2">
-        <v>770.75300000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+        <v>11.6355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1">
-        <v>41149</v>
+        <v>41197</v>
       </c>
       <c r="F28">
-        <v>15710</v>
+        <v>13360</v>
       </c>
       <c r="G28" s="1">
-        <v>41197</v>
+        <v>41211</v>
       </c>
       <c r="H28">
-        <v>16075</v>
+        <v>12920</v>
       </c>
       <c r="I28">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>51400</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>417625</v>
+        <v>-2210</v>
       </c>
       <c r="L28">
-        <v>8576775</v>
+        <v>94405</v>
       </c>
       <c r="M28" s="2">
-        <v>53.166800000000002</v>
+        <v>-0.33079999999999998</v>
       </c>
       <c r="N28" s="2">
-        <v>823.91980000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+        <v>11.304600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1">
-        <v>41197</v>
+        <v>41211</v>
       </c>
       <c r="F29">
-        <v>16075</v>
+        <v>12920</v>
       </c>
       <c r="G29" s="1">
         <v>41240</v>
       </c>
       <c r="H29">
-        <v>16120</v>
+        <v>13405</v>
       </c>
       <c r="I29">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>34400</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>-73100</v>
+        <v>-2435</v>
       </c>
       <c r="L29">
-        <v>8503675</v>
+        <v>91970</v>
       </c>
       <c r="M29" s="2">
-        <v>-9.0949000000000009</v>
+        <v>-0.37690000000000001</v>
       </c>
       <c r="N29" s="2">
-        <v>814.82489999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.9277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1">
         <v>41240</v>
       </c>
       <c r="F30">
-        <v>16120</v>
+        <v>13405</v>
       </c>
       <c r="G30" s="1">
-        <v>41290</v>
+        <v>41246</v>
       </c>
       <c r="H30">
-        <v>16000</v>
+        <v>13615</v>
       </c>
       <c r="I30">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>55000</v>
+        <v>10</v>
       </c>
       <c r="K30">
-        <v>-220000</v>
+        <v>-1060</v>
       </c>
       <c r="L30">
-        <v>8283675</v>
+        <v>90910</v>
       </c>
       <c r="M30" s="2">
-        <v>-27.295300000000001</v>
+        <v>-0.15809999999999999</v>
       </c>
       <c r="N30" s="2">
-        <v>787.52959999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.769500000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1">
+        <v>41246</v>
+      </c>
+      <c r="F31">
+        <v>13615</v>
+      </c>
+      <c r="G31" s="1">
         <v>41290</v>
       </c>
-      <c r="F31">
-        <v>16000</v>
-      </c>
-      <c r="G31" s="1">
-        <v>41302</v>
-      </c>
       <c r="H31">
-        <v>16345</v>
+        <v>13285</v>
       </c>
       <c r="I31">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>53000</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>-510125</v>
+        <v>-1660</v>
       </c>
       <c r="L31">
-        <v>7773550</v>
+        <v>89250</v>
       </c>
       <c r="M31" s="2">
-        <v>-63.765599999999999</v>
+        <v>-0.24379999999999999</v>
       </c>
       <c r="N31" s="2">
-        <v>723.76400000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.525700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1">
-        <v>41302</v>
+        <v>41290</v>
       </c>
       <c r="F32">
-        <v>16345</v>
+        <v>13285</v>
       </c>
       <c r="G32" s="1">
         <v>41327</v>
       </c>
       <c r="H32">
-        <v>16315</v>
+        <v>13600</v>
       </c>
       <c r="I32">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>53800</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>-94150</v>
+        <v>1565</v>
       </c>
       <c r="L32">
-        <v>7679400</v>
+        <v>90815</v>
       </c>
       <c r="M32" s="2">
-        <v>-11.520300000000001</v>
+        <v>0.2356</v>
       </c>
       <c r="N32" s="2">
-        <v>712.24369999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.7613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" s="1">
         <v>41327</v>
       </c>
       <c r="F33">
-        <v>16315</v>
+        <v>13600</v>
       </c>
       <c r="G33" s="1">
-        <v>41429</v>
+        <v>41341</v>
       </c>
       <c r="H33">
-        <v>15360</v>
+        <v>13155</v>
       </c>
       <c r="I33">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>39600</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>905850</v>
+        <v>-2235</v>
       </c>
       <c r="L33">
-        <v>8585250</v>
+        <v>88580</v>
       </c>
       <c r="M33" s="2">
-        <v>111.04510000000001</v>
+        <v>-0.32869999999999999</v>
       </c>
       <c r="N33" s="2">
-        <v>823.28869999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.432600000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1">
+        <v>41341</v>
+      </c>
+      <c r="F34">
+        <v>13155</v>
+      </c>
+      <c r="G34" s="1">
         <v>41429</v>
       </c>
-      <c r="F34">
-        <v>15360</v>
-      </c>
-      <c r="G34" s="1">
-        <v>41442</v>
-      </c>
       <c r="H34">
-        <v>14970</v>
+        <v>12645</v>
       </c>
       <c r="I34">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>54600</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>-586950</v>
+        <v>2540</v>
       </c>
       <c r="L34">
-        <v>7998300</v>
+        <v>91120</v>
       </c>
       <c r="M34" s="2">
-        <v>-76.425799999999995</v>
+        <v>0.38619999999999999</v>
       </c>
       <c r="N34" s="2">
-        <v>746.86289999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.8188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1">
-        <v>41444</v>
+        <v>41429</v>
       </c>
       <c r="F35">
-        <v>14930</v>
+        <v>12645</v>
       </c>
       <c r="G35" s="1">
-        <v>41467</v>
+        <v>41442</v>
       </c>
       <c r="H35">
-        <v>15155</v>
+        <v>12255</v>
       </c>
       <c r="I35">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>57200</v>
+        <v>10</v>
       </c>
       <c r="K35">
-        <v>-378950</v>
+        <v>-1960</v>
       </c>
       <c r="L35">
-        <v>7619350</v>
+        <v>89160</v>
       </c>
       <c r="M35" s="2">
-        <v>-50.763599999999997</v>
+        <v>-0.31</v>
       </c>
       <c r="N35" s="2">
-        <v>696.09939999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.508800000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1">
-        <v>41467</v>
+        <v>41444</v>
       </c>
       <c r="F36">
-        <v>15155</v>
+        <v>12215</v>
       </c>
       <c r="G36" s="1">
         <v>41519</v>
       </c>
       <c r="H36">
-        <v>15170</v>
+        <v>12455</v>
       </c>
       <c r="I36">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>52400</v>
+        <v>10</v>
       </c>
       <c r="K36">
-        <v>-32750</v>
+        <v>1190</v>
       </c>
       <c r="L36">
-        <v>7586600</v>
+        <v>90350</v>
       </c>
       <c r="M36" s="2">
-        <v>-4.3220000000000001</v>
+        <v>0.1948</v>
       </c>
       <c r="N36" s="2">
-        <v>691.77739999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.7036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1">
         <v>41519</v>
       </c>
       <c r="F37">
-        <v>15170</v>
+        <v>12455</v>
       </c>
       <c r="G37" s="1">
-        <v>41562</v>
+        <v>41591</v>
       </c>
       <c r="H37">
-        <v>15400</v>
+        <v>12470</v>
       </c>
       <c r="I37">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>48000</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>-324000</v>
+        <v>65</v>
       </c>
       <c r="L37">
-        <v>7262600</v>
+        <v>90415</v>
       </c>
       <c r="M37" s="2">
-        <v>-42.715899999999998</v>
+        <v>1.04E-2</v>
       </c>
       <c r="N37" s="2">
-        <v>649.06150000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.7141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1">
-        <v>41562</v>
+        <v>41591</v>
       </c>
       <c r="F38">
-        <v>15400</v>
+        <v>12470</v>
       </c>
       <c r="G38" s="1">
-        <v>41591</v>
+        <v>41645</v>
       </c>
       <c r="H38">
-        <v>15185</v>
+        <v>12735</v>
       </c>
       <c r="I38">
-        <v>375</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>75000</v>
+        <v>10</v>
       </c>
       <c r="K38">
-        <v>-478125</v>
+        <v>1315</v>
       </c>
       <c r="L38">
-        <v>6784475</v>
+        <v>91730</v>
       </c>
       <c r="M38" s="2">
-        <v>-62.094200000000001</v>
+        <v>0.2109</v>
       </c>
       <c r="N38" s="2">
-        <v>586.96730000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.925000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1">
-        <v>41591</v>
+        <v>41645</v>
       </c>
       <c r="F39">
-        <v>15185</v>
+        <v>12735</v>
       </c>
       <c r="G39" s="1">
-        <v>41619</v>
+        <v>41695</v>
       </c>
       <c r="H39">
-        <v>15410</v>
+        <v>12635</v>
       </c>
       <c r="I39">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>58600</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>-388225</v>
+        <v>-510</v>
       </c>
       <c r="L39">
-        <v>6396250</v>
+        <v>91220</v>
       </c>
       <c r="M39" s="2">
-        <v>-51.1327</v>
+        <v>-8.0100000000000005E-2</v>
       </c>
       <c r="N39" s="2">
-        <v>535.83460000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.844900000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1">
-        <v>41619</v>
+        <v>41695</v>
       </c>
       <c r="F40">
-        <v>15410</v>
+        <v>12635</v>
       </c>
       <c r="G40" s="1">
-        <v>41645</v>
+        <v>41709</v>
       </c>
       <c r="H40">
-        <v>15450</v>
+        <v>12320</v>
       </c>
       <c r="I40">
-        <v>595</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>119000</v>
+        <v>10</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>-1585</v>
       </c>
       <c r="L40">
-        <v>6396250</v>
+        <v>89635</v>
       </c>
       <c r="M40" s="2">
-        <v>0</v>
+        <v>-0.25090000000000001</v>
       </c>
       <c r="N40" s="2">
-        <v>535.83460000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.593999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1">
-        <v>41645</v>
+        <v>41709</v>
       </c>
       <c r="F41">
-        <v>15450</v>
+        <v>12320</v>
       </c>
       <c r="G41" s="1">
         <v>41753</v>
       </c>
       <c r="H41">
-        <v>15315</v>
+        <v>12600</v>
       </c>
       <c r="I41">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>55000</v>
+        <v>10</v>
       </c>
       <c r="K41">
-        <v>130625</v>
+        <v>-1410</v>
       </c>
       <c r="L41">
-        <v>6526875</v>
+        <v>88225</v>
       </c>
       <c r="M41" s="2">
-        <v>16.909400000000002</v>
+        <v>-0.22889999999999999</v>
       </c>
       <c r="N41" s="2">
-        <v>552.74400000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.3651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1">
         <v>41753</v>
       </c>
       <c r="F42">
-        <v>15315</v>
+        <v>12600</v>
       </c>
       <c r="G42" s="1">
-        <v>41807</v>
+        <v>41800</v>
       </c>
       <c r="H42">
-        <v>15545</v>
+        <v>12815</v>
       </c>
       <c r="I42">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>104000</v>
+        <v>10</v>
       </c>
       <c r="K42">
-        <v>494000</v>
+        <v>-1085</v>
       </c>
       <c r="L42">
-        <v>7020875</v>
+        <v>87140</v>
       </c>
       <c r="M42" s="2">
-        <v>64.511899999999997</v>
+        <v>-0.17219999999999999</v>
       </c>
       <c r="N42" s="2">
-        <v>617.2559</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.1929</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1">
-        <v>41813</v>
+        <v>41800</v>
       </c>
       <c r="F43">
-        <v>15890</v>
+        <v>12815</v>
       </c>
       <c r="G43" s="1">
-        <v>41862</v>
+        <v>41807</v>
       </c>
       <c r="H43">
-        <v>16710</v>
+        <v>12830</v>
       </c>
       <c r="I43">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>52800</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>1029600</v>
+        <v>65</v>
       </c>
       <c r="L43">
-        <v>8050475</v>
+        <v>87205</v>
       </c>
       <c r="M43" s="2">
-        <v>129.5909</v>
+        <v>1.01E-2</v>
       </c>
       <c r="N43" s="2">
-        <v>746.84690000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.202999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1">
+        <v>41813</v>
+      </c>
+      <c r="F44">
+        <v>13175</v>
+      </c>
+      <c r="G44" s="1">
         <v>41862</v>
       </c>
-      <c r="F44">
-        <v>16710</v>
-      </c>
-      <c r="G44" s="1">
-        <v>41891</v>
-      </c>
       <c r="H44">
-        <v>17150</v>
+        <v>13995</v>
       </c>
       <c r="I44">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>26600</v>
+        <v>10</v>
       </c>
       <c r="K44">
-        <v>-319200</v>
+        <v>4090</v>
       </c>
       <c r="L44">
-        <v>7731275</v>
+        <v>91295</v>
       </c>
       <c r="M44" s="2">
-        <v>-38.204700000000003</v>
+        <v>0.62090000000000001</v>
       </c>
       <c r="N44" s="2">
-        <v>708.6422</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.8239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1">
+        <v>41862</v>
+      </c>
+      <c r="F45">
+        <v>13995</v>
+      </c>
+      <c r="G45" s="1">
         <v>41891</v>
       </c>
-      <c r="F45">
-        <v>17150</v>
-      </c>
-      <c r="G45" s="1">
-        <v>41893</v>
-      </c>
       <c r="H45">
-        <v>16335</v>
+        <v>14435</v>
       </c>
       <c r="I45">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>34600</v>
+        <v>10</v>
       </c>
       <c r="K45">
-        <v>-739575</v>
+        <v>-2210</v>
       </c>
       <c r="L45">
-        <v>6991700</v>
+        <v>89085</v>
       </c>
       <c r="M45" s="2">
-        <v>-86.247799999999998</v>
+        <v>-0.31580000000000003</v>
       </c>
       <c r="N45" s="2">
-        <v>622.39440000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10.508100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1">
-        <v>41893</v>
+        <v>41891</v>
       </c>
       <c r="F46">
-        <v>16335</v>
+        <v>14435</v>
       </c>
       <c r="G46" s="1">
-        <v>41912</v>
+        <v>41920</v>
       </c>
       <c r="H46">
-        <v>16800</v>
+        <v>14135</v>
       </c>
       <c r="I46">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>28000</v>
+        <v>10</v>
       </c>
       <c r="K46">
-        <v>-353500</v>
+        <v>1490</v>
       </c>
       <c r="L46">
-        <v>6638200</v>
+        <v>90575</v>
       </c>
       <c r="M46" s="2">
-        <v>-43.281300000000002</v>
+        <v>0.2064</v>
       </c>
       <c r="N46" s="2">
-        <v>579.11310000000003</v>
+        <v>10.714499999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1">
+        <v>41920</v>
+      </c>
+      <c r="F47">
+        <v>14135</v>
+      </c>
+      <c r="G47" s="1">
+        <v>41946</v>
+      </c>
+      <c r="H47">
+        <v>14200</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>-335</v>
+      </c>
+      <c r="L47">
+        <v>90240</v>
+      </c>
+      <c r="M47" s="2">
+        <v>-4.7399999999999998E-2</v>
+      </c>
+      <c r="N47" s="2">
+        <v>10.6671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1">
+        <v>41946</v>
+      </c>
+      <c r="F48">
+        <v>14200</v>
+      </c>
+      <c r="G48" s="1">
+        <v>42009</v>
+      </c>
+      <c r="H48">
+        <v>14020</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>890</v>
+      </c>
+      <c r="L48">
+        <v>91130</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="N48" s="2">
+        <v>10.792400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1">
+        <v>42009</v>
+      </c>
+      <c r="F49">
+        <v>14020</v>
+      </c>
+      <c r="G49" s="1">
+        <v>42027</v>
+      </c>
+      <c r="H49">
+        <v>13695</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>1615</v>
+      </c>
+      <c r="L49">
+        <v>92745</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="N49" s="2">
+        <v>11.0228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42033</v>
+      </c>
+      <c r="F50">
+        <v>13635</v>
+      </c>
+      <c r="G50" s="1">
+        <v>42101</v>
+      </c>
+      <c r="H50">
+        <v>13525</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>540</v>
+      </c>
+      <c r="L50">
+        <v>93285</v>
+      </c>
+      <c r="M50" s="2">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="N50" s="2">
+        <v>11.102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42101</v>
+      </c>
+      <c r="F51">
+        <v>13525</v>
+      </c>
+      <c r="G51" s="1">
+        <v>42111</v>
+      </c>
+      <c r="H51">
+        <v>13970</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>-2235</v>
+      </c>
+      <c r="L51">
+        <v>91050</v>
+      </c>
+      <c r="M51" s="2">
+        <v>-0.33050000000000002</v>
+      </c>
+      <c r="N51" s="2">
+        <v>10.7715</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42111</v>
+      </c>
+      <c r="F52">
+        <v>13970</v>
+      </c>
+      <c r="G52" s="1">
+        <v>42145</v>
+      </c>
+      <c r="H52">
+        <v>13925</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>-235</v>
+      </c>
+      <c r="L52">
+        <v>90815</v>
+      </c>
+      <c r="M52" s="2">
+        <v>-3.3599999999999998E-2</v>
+      </c>
+      <c r="N52" s="2">
+        <v>10.7379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1">
+        <v>42145</v>
+      </c>
+      <c r="F53">
+        <v>13925</v>
+      </c>
+      <c r="G53" s="1">
+        <v>42200</v>
+      </c>
+      <c r="H53">
+        <v>12735</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>5940</v>
+      </c>
+      <c r="L53">
+        <v>96755</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="N53" s="2">
+        <v>11.590999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1">
+        <v>42202</v>
+      </c>
+      <c r="F54">
+        <v>12960</v>
+      </c>
+      <c r="G54" s="1">
+        <v>42213</v>
+      </c>
+      <c r="H54">
+        <v>11945</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>-5085</v>
+      </c>
+      <c r="L54">
+        <v>91670</v>
+      </c>
+      <c r="M54" s="2">
+        <v>-0.78469999999999995</v>
+      </c>
+      <c r="N54" s="2">
+        <v>10.8063</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1">
+        <v>42213</v>
+      </c>
+      <c r="F55">
+        <v>11945</v>
+      </c>
+      <c r="G55" s="1">
+        <v>42268</v>
+      </c>
+      <c r="H55">
+        <v>11625</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>-1610</v>
+      </c>
+      <c r="L55">
+        <v>90060</v>
+      </c>
+      <c r="M55" s="2">
+        <v>-0.26960000000000001</v>
+      </c>
+      <c r="N55" s="2">
+        <v>10.5367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1">
+        <v>42268</v>
+      </c>
+      <c r="F56">
+        <v>11625</v>
+      </c>
+      <c r="G56" s="1">
+        <v>42289</v>
+      </c>
+      <c r="H56">
+        <v>12150</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>-2635</v>
+      </c>
+      <c r="L56">
+        <v>87425</v>
+      </c>
+      <c r="M56" s="2">
+        <v>-0.45329999999999998</v>
+      </c>
+      <c r="N56" s="2">
+        <v>10.083399999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1">
+        <v>42289</v>
+      </c>
+      <c r="F57">
+        <v>12150</v>
+      </c>
+      <c r="G57" s="1">
+        <v>42310</v>
+      </c>
+      <c r="H57">
+        <v>11235</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>-4585</v>
+      </c>
+      <c r="L57">
+        <v>82840</v>
+      </c>
+      <c r="M57" s="2">
+        <v>-0.75470000000000004</v>
+      </c>
+      <c r="N57" s="2">
+        <v>9.3286999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1">
+        <v>42310</v>
+      </c>
+      <c r="F58">
+        <v>11235</v>
+      </c>
+      <c r="G58" s="1">
+        <v>42320</v>
+      </c>
+      <c r="H58">
+        <v>10390</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>-4235</v>
+      </c>
+      <c r="L58">
+        <v>78605</v>
+      </c>
+      <c r="M58" s="2">
+        <v>-0.75390000000000001</v>
+      </c>
+      <c r="N58" s="2">
+        <v>8.5747999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1">
+        <v>42320</v>
+      </c>
+      <c r="F59">
+        <v>10390</v>
+      </c>
+      <c r="G59" s="1">
+        <v>42335</v>
+      </c>
+      <c r="H59">
+        <v>10735</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>-1735</v>
+      </c>
+      <c r="L59">
+        <v>76870</v>
+      </c>
+      <c r="M59" s="2">
+        <v>-0.33400000000000002</v>
+      </c>
+      <c r="N59" s="2">
+        <v>8.2408000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1">
+        <v>42335</v>
+      </c>
+      <c r="F60">
+        <v>10735</v>
+      </c>
+      <c r="G60" s="1">
+        <v>42382</v>
+      </c>
+      <c r="H60">
+        <v>10050</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>-3435</v>
+      </c>
+      <c r="L60">
+        <v>73435</v>
+      </c>
+      <c r="M60" s="2">
+        <v>-0.64</v>
+      </c>
+      <c r="N60" s="2">
+        <v>7.6009000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>42382</v>
+      </c>
+      <c r="F61">
+        <v>10050</v>
+      </c>
+      <c r="G61" s="1">
+        <v>42515</v>
+      </c>
+      <c r="H61">
+        <v>11965</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>9565</v>
+      </c>
+      <c r="L61">
+        <v>83000</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1.9035</v>
+      </c>
+      <c r="N61" s="2">
+        <v>9.5043000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1">
+        <v>42515</v>
+      </c>
+      <c r="F62">
+        <v>11965</v>
+      </c>
+      <c r="G62" s="1">
+        <v>42626</v>
+      </c>
+      <c r="H62">
+        <v>15015</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <v>15240</v>
+      </c>
+      <c r="L62">
+        <v>98240</v>
+      </c>
+      <c r="M62" s="2">
+        <v>2.5474000000000001</v>
+      </c>
+      <c r="N62" s="2">
+        <v>12.0518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1">
+        <v>42626</v>
+      </c>
+      <c r="F63">
+        <v>15015</v>
+      </c>
+      <c r="G63" s="1">
+        <v>42724</v>
+      </c>
+      <c r="H63">
+        <v>18705</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
+      <c r="K63">
+        <v>18440</v>
+      </c>
+      <c r="L63">
+        <v>116680</v>
+      </c>
+      <c r="M63" s="2">
+        <v>2.4561999999999999</v>
+      </c>
+      <c r="N63" s="2">
+        <v>14.507999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="1">
+        <v>42724</v>
+      </c>
+      <c r="F64">
+        <v>18705</v>
+      </c>
+      <c r="G64" s="1">
+        <v>42801</v>
+      </c>
+      <c r="H64">
+        <v>19470</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>3815</v>
+      </c>
+      <c r="L64">
+        <v>120495</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="N64" s="2">
+        <v>14.915900000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="1">
+        <v>42801</v>
+      </c>
+      <c r="F65">
+        <v>19470</v>
+      </c>
+      <c r="G65" s="1">
+        <v>42835</v>
+      </c>
+      <c r="H65">
+        <v>19245</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <v>-1135</v>
+      </c>
+      <c r="L65">
+        <v>119360</v>
+      </c>
+      <c r="M65" s="2">
+        <v>-0.1166</v>
+      </c>
+      <c r="N65" s="2">
+        <v>14.799300000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1">
+        <v>42835</v>
+      </c>
+      <c r="F66">
+        <v>19245</v>
+      </c>
+      <c r="G66" s="1">
+        <v>42989</v>
+      </c>
+      <c r="H66">
+        <v>23145</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>19490</v>
+      </c>
+      <c r="L66">
+        <v>138850</v>
+      </c>
+      <c r="M66" s="2">
+        <v>2.0255000000000001</v>
+      </c>
+      <c r="N66" s="2">
+        <v>16.8248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1">
+        <v>42989</v>
+      </c>
+      <c r="F67">
+        <v>23145</v>
+      </c>
+      <c r="G67" s="1">
+        <v>43143</v>
+      </c>
+      <c r="H67">
+        <v>25275</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <v>10640</v>
+      </c>
+      <c r="L67">
+        <v>149490</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0.9194</v>
+      </c>
+      <c r="N67" s="2">
+        <v>17.744199999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43143</v>
+      </c>
+      <c r="F68">
+        <v>25275</v>
+      </c>
+      <c r="G68" s="1">
+        <v>43166</v>
+      </c>
+      <c r="H68">
+        <v>24820</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>-2285</v>
+      </c>
+      <c r="L68">
+        <v>147205</v>
+      </c>
+      <c r="M68" s="2">
+        <v>-0.18079999999999999</v>
+      </c>
+      <c r="N68" s="2">
+        <v>17.563400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="1">
+        <v>43166</v>
+      </c>
+      <c r="F69">
+        <v>24820</v>
+      </c>
+      <c r="G69" s="1">
+        <v>43252</v>
+      </c>
+      <c r="H69">
+        <v>23700</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>5590</v>
+      </c>
+      <c r="L69">
+        <v>152795</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="N69" s="2">
+        <v>18.0138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1">
+        <v>43252</v>
+      </c>
+      <c r="F70">
+        <v>23700</v>
+      </c>
+      <c r="G70" s="1">
+        <v>43271</v>
+      </c>
+      <c r="H70">
+        <v>23020</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>-3410</v>
+      </c>
+      <c r="L70">
+        <v>149385</v>
+      </c>
+      <c r="M70" s="2">
+        <v>-0.2878</v>
+      </c>
+      <c r="N70" s="2">
+        <v>17.725999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43271</v>
+      </c>
+      <c r="F71">
+        <v>23020</v>
+      </c>
+      <c r="G71" s="1">
+        <v>43277</v>
+      </c>
+      <c r="H71">
+        <v>22230</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>-3960</v>
+      </c>
+      <c r="L71">
+        <v>145425</v>
+      </c>
+      <c r="M71" s="2">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="N71" s="2">
+        <v>17.382000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43277</v>
+      </c>
+      <c r="F72">
+        <v>22230</v>
+      </c>
+      <c r="G72" s="1">
+        <v>43321</v>
+      </c>
+      <c r="H72">
+        <v>21555</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>3365</v>
+      </c>
+      <c r="L72">
+        <v>148790</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0.30270000000000002</v>
+      </c>
+      <c r="N72" s="2">
+        <v>17.684699999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="1">
+        <v>43321</v>
+      </c>
+      <c r="F73">
+        <v>21555</v>
+      </c>
+      <c r="G73" s="1">
+        <v>43322</v>
+      </c>
+      <c r="H73">
+        <v>21285</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <v>-1360</v>
+      </c>
+      <c r="L73">
+        <v>147430</v>
+      </c>
+      <c r="M73" s="2">
+        <v>-0.12620000000000001</v>
+      </c>
+      <c r="N73" s="2">
+        <v>17.558599999999998</v>
       </c>
     </row>
   </sheetData>
